--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -70,70 +70,76 @@
     <t>best</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>comfortable</t>
   </si>
   <si>
     <t>ze</t>
@@ -145,25 +151,28 @@
     <t>ever</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>cooking</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>cook</t>
@@ -172,33 +181,24 @@
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -211,19 +211,25 @@
     <t>coffee</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -587,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3798449612403101</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -674,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
@@ -706,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2929292929292929</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -756,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +788,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -834,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -860,13 +866,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M9">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -886,13 +892,13 @@
         <v>18</v>
       </c>
       <c r="K10">
-        <v>0.6915254237288135</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -912,13 +918,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -938,13 +944,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6712328767123288</v>
+        <v>0.6711864406779661</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -964,13 +970,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6530612244897959</v>
+        <v>0.65625</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -990,13 +996,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6428571428571429</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L14">
-        <v>801</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>801</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1008,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>445</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1016,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1042,13 +1048,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6103896103896104</v>
+        <v>0.6268057784911717</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>781</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>781</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1068,13 +1074,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.59375</v>
+        <v>0.6</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1094,13 +1100,13 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5714285714285714</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L18">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1120,13 +1126,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1146,13 +1152,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5692307692307692</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1172,13 +1178,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5614035087719298</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1190,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1198,13 +1204,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5526315789473685</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1224,13 +1230,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5480769230769231</v>
+        <v>0.5662650602409639</v>
       </c>
       <c r="L23">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1242,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1250,13 +1256,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5441176470588235</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1276,13 +1282,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.5269461077844312</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L25">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1294,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1302,13 +1308,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1328,13 +1334,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1354,13 +1360,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.5060240963855421</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1372,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1380,13 +1386,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1406,13 +1412,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.4923076923076923</v>
+        <v>0.51</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1432,13 +1438,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1450,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1458,13 +1464,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1476,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1484,13 +1490,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.4397590361445783</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1502,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>93</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1510,13 +1516,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.4135338345864661</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L34">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1536,13 +1542,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.4078947368421053</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1554,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1562,13 +1568,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.3553921568627451</v>
+        <v>0.3984962406015037</v>
       </c>
       <c r="L36">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1580,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>263</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1588,13 +1594,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.3463035019455253</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="L37">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="M37">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1606,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>168</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1614,13 +1620,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.3366336633663367</v>
+        <v>0.3540856031128405</v>
       </c>
       <c r="L38">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1632,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>67</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1640,13 +1646,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.3315068493150685</v>
+        <v>0.3164383561643835</v>
       </c>
       <c r="L39">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M39">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1658,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1666,13 +1672,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.3178807947019868</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="L40">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1684,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1692,13 +1698,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.3063063063063063</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1710,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1718,13 +1724,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.3055555555555556</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1736,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1744,7 +1750,7 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.302158273381295</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L43">
         <v>42</v>
@@ -1762,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1770,13 +1776,13 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.2932330827067669</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1788,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1796,13 +1802,13 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.2792792792792793</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1814,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1822,13 +1828,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.2679425837320574</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L46">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1840,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1848,13 +1854,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.2335844994617869</v>
+        <v>0.2411194833153929</v>
       </c>
       <c r="L47">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M47">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1866,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1874,13 +1880,13 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.2013422818791946</v>
+        <v>0.2066225165562914</v>
       </c>
       <c r="L48">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="M48">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1892,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>119</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1900,13 +1906,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1912225705329154</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L49">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1918,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>258</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1926,25 +1932,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1907284768211921</v>
+        <v>0.1946222791293214</v>
       </c>
       <c r="L50">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M50">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1952,13 +1958,13 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.1890243902439024</v>
+        <v>0.1912225705329154</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1970,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>133</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1978,13 +1984,13 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.1854219948849105</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L52">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1996,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>637</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2004,13 +2010,13 @@
         <v>61</v>
       </c>
       <c r="K53">
-        <v>0.1621621621621622</v>
+        <v>0.1648648648648649</v>
       </c>
       <c r="L53">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M53">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N53">
         <v>0.98</v>
@@ -2022,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2030,25 +2036,25 @@
         <v>62</v>
       </c>
       <c r="K54">
-        <v>0.1444444444444444</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L54">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2056,13 +2062,13 @@
         <v>63</v>
       </c>
       <c r="K55">
-        <v>0.1312649164677804</v>
+        <v>0.1360381861575179</v>
       </c>
       <c r="L55">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2074,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2082,13 +2088,13 @@
         <v>64</v>
       </c>
       <c r="K56">
-        <v>0.125</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M56">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2100,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2108,13 +2114,13 @@
         <v>65</v>
       </c>
       <c r="K57">
-        <v>0.1237113402061856</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L57">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M57">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2126,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>255</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2134,13 +2140,13 @@
         <v>66</v>
       </c>
       <c r="K58">
-        <v>0.1184210526315789</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L58">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M58">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2152,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>402</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2160,13 +2166,13 @@
         <v>67</v>
       </c>
       <c r="K59">
-        <v>0.1094890510948905</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L59">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2178,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>366</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2186,13 +2192,13 @@
         <v>68</v>
       </c>
       <c r="K60">
-        <v>0.07462686567164178</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="L60">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2204,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>992</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2212,25 +2218,25 @@
         <v>69</v>
       </c>
       <c r="K61">
-        <v>0.06743185078909612</v>
+        <v>0.07282913165266107</v>
       </c>
       <c r="L61">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="M61">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>650</v>
+        <v>993</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2238,25 +2244,77 @@
         <v>70</v>
       </c>
       <c r="K62">
-        <v>0.04415584415584416</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L62">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M62">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>1104</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63">
+        <v>0.05545286506469501</v>
+      </c>
+      <c r="L63">
+        <v>30</v>
+      </c>
+      <c r="M63">
+        <v>31</v>
+      </c>
+      <c r="N63">
+        <v>0.97</v>
+      </c>
+      <c r="O63">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="L64">
+        <v>42</v>
+      </c>
+      <c r="M64">
+        <v>44</v>
+      </c>
+      <c r="N64">
+        <v>0.95</v>
+      </c>
+      <c r="O64">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>
